--- a/Aux_Tecnicos.xlsx
+++ b/Aux_Tecnicos.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q105"/>
+  <dimension ref="A1:Q217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Alemania Federal</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Rumanía</t>
+          <t>Rumania</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Alemania Federal</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Rumanía</t>
+          <t>Rumania</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -4544,7 +4544,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Alemania Federal</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4593,10 +4593,10 @@
         </is>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -5616,7 +5616,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Alemania Federal</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -7417,6 +7417,7510 @@
       </c>
       <c r="Q105">
         <v>41.75342465753425</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1966</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Juan Carlos Lorenzo</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="E106">
+        <v>22</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>octubre</t>
+        </is>
+      </c>
+      <c r="G106">
+        <v>1922</v>
+      </c>
+      <c r="H106" s="2">
+        <v>24299</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="K106">
+        <v>19</v>
+      </c>
+      <c r="L106">
+        <v>10</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>1922-10-22</t>
+        </is>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>43.71780821917808</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1966</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Vicente Feola</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E107">
+        <v>20</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>noviembre</t>
+        </is>
+      </c>
+      <c r="G107">
+        <v>1909</v>
+      </c>
+      <c r="H107" s="2">
+        <v>24299</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="K107">
+        <v>19</v>
+      </c>
+      <c r="L107">
+        <v>11</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>1909-11-20</t>
+        </is>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>56.63835616438356</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1966</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Rudolf Vytlačil</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Checoslovaquia</t>
+        </is>
+      </c>
+      <c r="E108">
+        <v>9</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>febrero</t>
+        </is>
+      </c>
+      <c r="G108">
+        <v>1912</v>
+      </c>
+      <c r="H108" s="2">
+        <v>24299</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="K108">
+        <v>19</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>1912-02-09</t>
+        </is>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>54.41643835616438</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1966</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Luis Álamos</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="E109">
+        <v>25</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>diciembre</t>
+        </is>
+      </c>
+      <c r="G109">
+        <v>1923</v>
+      </c>
+      <c r="H109" s="2">
+        <v>24299</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="K109">
+        <v>19</v>
+      </c>
+      <c r="L109">
+        <v>12</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>1923-12-25</t>
+        </is>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>42.54246575342466</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1966</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Alf Ramsey</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="E110">
+        <v>22</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="G110">
+        <v>1920</v>
+      </c>
+      <c r="H110" s="2">
+        <v>24299</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="K110">
+        <v>19</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>1920-01-22</t>
+        </is>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+      <c r="Q110">
+        <v>46.46575342465754</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1966</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>José Villalonga</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="E111">
+        <v>12</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>diciembre</t>
+        </is>
+      </c>
+      <c r="G111">
+        <v>1919</v>
+      </c>
+      <c r="H111" s="2">
+        <v>24299</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="K111">
+        <v>19</v>
+      </c>
+      <c r="L111">
+        <v>12</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>1919-12-12</t>
+        </is>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>46.57808219178082</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1966</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Francia</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Henri Guérin</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Francia</t>
+        </is>
+      </c>
+      <c r="E112">
+        <v>27</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>agosto</t>
+        </is>
+      </c>
+      <c r="G112">
+        <v>1921</v>
+      </c>
+      <c r="H112" s="2">
+        <v>24299</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="K112">
+        <v>19</v>
+      </c>
+      <c r="L112">
+        <v>8</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>1921-08-27</t>
+        </is>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>44.87123287671233</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1966</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Helmut Schön</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Alemania</t>
+        </is>
+      </c>
+      <c r="E113">
+        <v>15</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>septiembre</t>
+        </is>
+      </c>
+      <c r="G113">
+        <v>1915</v>
+      </c>
+      <c r="H113" s="2">
+        <v>24299</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="K113">
+        <v>19</v>
+      </c>
+      <c r="L113">
+        <v>9</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>1915-09-15</t>
+        </is>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>50.81917808219178</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1966</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Hungría</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Lajos Baróti</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Hungría</t>
+        </is>
+      </c>
+      <c r="E114">
+        <v>19</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>agosto</t>
+        </is>
+      </c>
+      <c r="G114">
+        <v>1914</v>
+      </c>
+      <c r="H114" s="2">
+        <v>24299</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="K114">
+        <v>19</v>
+      </c>
+      <c r="L114">
+        <v>8</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>1914-08-19</t>
+        </is>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>51.89315068493151</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1966</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Edmondo Fabbri</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="E115">
+        <v>16</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>noviembre</t>
+        </is>
+      </c>
+      <c r="G115">
+        <v>1921</v>
+      </c>
+      <c r="H115" s="2">
+        <v>24299</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="K115">
+        <v>19</v>
+      </c>
+      <c r="L115">
+        <v>11</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>1921-11-16</t>
+        </is>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>44.64931506849315</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1966</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Ignacio Trelles</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="E116">
+        <v>31</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>julio</t>
+        </is>
+      </c>
+      <c r="G116">
+        <v>1916</v>
+      </c>
+      <c r="H116" s="2">
+        <v>24299</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="K116">
+        <v>19</v>
+      </c>
+      <c r="L116">
+        <v>7</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>1916-07-31</t>
+        </is>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>49.94520547945206</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1966</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Otto Glória</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E117">
+        <v>9</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="G117">
+        <v>1917</v>
+      </c>
+      <c r="H117" s="2">
+        <v>24299</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="K117">
+        <v>19</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>1917-01-09</t>
+        </is>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>49.5013698630137</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1966</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Corea del Norte</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Myung Rye Hyun</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Corea del Norte</t>
+        </is>
+      </c>
+      <c r="E118">
+        <v>14</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>abril</t>
+        </is>
+      </c>
+      <c r="G118">
+        <v>1926</v>
+      </c>
+      <c r="H118" s="2">
+        <v>24299</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="K118">
+        <v>19</v>
+      </c>
+      <c r="L118">
+        <v>4</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>1926-04-14</t>
+        </is>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>40.24109589041096</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1966</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Suiza</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Alfredo Foni</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="E119">
+        <v>20</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="G119">
+        <v>1911</v>
+      </c>
+      <c r="H119" s="2">
+        <v>24299</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="K119">
+        <v>19</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>1911-01-20</t>
+        </is>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>1</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>55.47123287671233</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>1966</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Unión Soviética</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Nikolai Morozov</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Unión Soviética</t>
+        </is>
+      </c>
+      <c r="E120">
+        <v>28</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>junio</t>
+        </is>
+      </c>
+      <c r="G120">
+        <v>1916</v>
+      </c>
+      <c r="H120" s="2">
+        <v>24299</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="K120">
+        <v>19</v>
+      </c>
+      <c r="L120">
+        <v>6</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>1916-06-28</t>
+        </is>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>50.03561643835616</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>1966</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Ondino Viera</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="E121">
+        <v>10</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>septiembre</t>
+        </is>
+      </c>
+      <c r="G121">
+        <v>1911</v>
+      </c>
+      <c r="H121" s="2">
+        <v>24299</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="K121">
+        <v>19</v>
+      </c>
+      <c r="L121">
+        <v>9</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>1911-09-10</t>
+        </is>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>54.83287671232877</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>1970</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Bélgica</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Raymond Goethals</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Bélgica</t>
+        </is>
+      </c>
+      <c r="E122">
+        <v>7</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>octubre</t>
+        </is>
+      </c>
+      <c r="G122">
+        <v>1921</v>
+      </c>
+      <c r="H122" s="2">
+        <v>25719</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="K122">
+        <v>21</v>
+      </c>
+      <c r="L122">
+        <v>10</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>1921-10-07</t>
+        </is>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>48.64657534246575</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>1970</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Mário Zagallo</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E123">
+        <v>9</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>agosto</t>
+        </is>
+      </c>
+      <c r="G123">
+        <v>1931</v>
+      </c>
+      <c r="H123" s="2">
+        <v>25719</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="K123">
+        <v>21</v>
+      </c>
+      <c r="L123">
+        <v>8</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>1931-08-09</t>
+        </is>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>38.80821917808219</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>1970</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Stefan Bozhkov</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="E124">
+        <v>20</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>septiembre</t>
+        </is>
+      </c>
+      <c r="G124">
+        <v>1923</v>
+      </c>
+      <c r="H124" s="2">
+        <v>25719</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="K124">
+        <v>21</v>
+      </c>
+      <c r="L124">
+        <v>9</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>1923-09-20</t>
+        </is>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>46.69315068493151</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>1970</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Alf Ramsey</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="E125">
+        <v>22</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="G125">
+        <v>1920</v>
+      </c>
+      <c r="H125" s="2">
+        <v>25719</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="K125">
+        <v>21</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>1920-01-22</t>
+        </is>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>50.35342465753425</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>1970</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Helmut Schön</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Alemania</t>
+        </is>
+      </c>
+      <c r="E126">
+        <v>15</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>septiembre</t>
+        </is>
+      </c>
+      <c r="G126">
+        <v>1915</v>
+      </c>
+      <c r="H126" s="2">
+        <v>25719</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="K126">
+        <v>21</v>
+      </c>
+      <c r="L126">
+        <v>9</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>1915-09-15</t>
+        </is>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>1</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>54.7068493150685</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>1970</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Emmanuel Scheffer</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Alemania/Israel</t>
+        </is>
+      </c>
+      <c r="E127">
+        <v>11</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>febrero</t>
+        </is>
+      </c>
+      <c r="G127">
+        <v>1924</v>
+      </c>
+      <c r="H127" s="2">
+        <v>25719</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="K127">
+        <v>21</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>1924-02-11</t>
+        </is>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>1</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>46.2986301369863</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>1970</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Ferruccio Valcareggi</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="E128">
+        <v>12</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>febrero</t>
+        </is>
+      </c>
+      <c r="G128">
+        <v>1919</v>
+      </c>
+      <c r="H128" s="2">
+        <v>25719</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="K128">
+        <v>21</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>1919-02-12</t>
+        </is>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>51.2958904109589</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>1970</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Marruecos</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Blagoje Vidinić</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Yugoslavia</t>
+        </is>
+      </c>
+      <c r="E129">
+        <v>11</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>junio</t>
+        </is>
+      </c>
+      <c r="G129">
+        <v>1934</v>
+      </c>
+      <c r="H129" s="2">
+        <v>25719</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="K129">
+        <v>21</v>
+      </c>
+      <c r="L129">
+        <v>6</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>1934-06-11</t>
+        </is>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>1</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>35.96986301369863</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>1970</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Raúl Cárdenas</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="E130">
+        <v>30</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>octubre</t>
+        </is>
+      </c>
+      <c r="G130">
+        <v>1928</v>
+      </c>
+      <c r="H130" s="2">
+        <v>25719</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="K130">
+        <v>21</v>
+      </c>
+      <c r="L130">
+        <v>10</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>1928-10-30</t>
+        </is>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>1</v>
+      </c>
+      <c r="Q130">
+        <v>41.58356164383562</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>1970</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Didi</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E131">
+        <v>8</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>octubre</t>
+        </is>
+      </c>
+      <c r="G131">
+        <v>1928</v>
+      </c>
+      <c r="H131" s="2">
+        <v>25719</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="K131">
+        <v>21</v>
+      </c>
+      <c r="L131">
+        <v>10</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>1928-10-08</t>
+        </is>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>1</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>41.64383561643836</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>1970</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Rumania</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Angelo Niculescu</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Rumania</t>
+        </is>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>octubre</t>
+        </is>
+      </c>
+      <c r="G132">
+        <v>1921</v>
+      </c>
+      <c r="H132" s="2">
+        <v>25719</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="K132">
+        <v>21</v>
+      </c>
+      <c r="L132">
+        <v>10</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>1921-10-01</t>
+        </is>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>48.66301369863014</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>1970</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Hernán Carrasco</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="E133">
+        <v>29</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>septiembre</t>
+        </is>
+      </c>
+      <c r="G133">
+        <v>1923</v>
+      </c>
+      <c r="H133" s="2">
+        <v>25719</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="K133">
+        <v>21</v>
+      </c>
+      <c r="L133">
+        <v>9</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>1923-09-29</t>
+        </is>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>1</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>46.66849315068493</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>1970</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Suecia</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Orvar Bergmark</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Suecia</t>
+        </is>
+      </c>
+      <c r="E134">
+        <v>16</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>noviembre</t>
+        </is>
+      </c>
+      <c r="G134">
+        <v>1930</v>
+      </c>
+      <c r="H134" s="2">
+        <v>25719</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="K134">
+        <v>21</v>
+      </c>
+      <c r="L134">
+        <v>11</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>1930-11-16</t>
+        </is>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>39.53698630136986</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>1970</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Checoslovaquia</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Jozef Marko</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Checoslovaquia</t>
+        </is>
+      </c>
+      <c r="E135">
+        <v>25</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>mayo</t>
+        </is>
+      </c>
+      <c r="G135">
+        <v>1923</v>
+      </c>
+      <c r="H135" s="2">
+        <v>25719</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="K135">
+        <v>21</v>
+      </c>
+      <c r="L135">
+        <v>5</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>1923-05-25</t>
+        </is>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>47.01643835616439</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>1970</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Unión Soviética</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Gavril Kachalin</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Unión Soviética</t>
+        </is>
+      </c>
+      <c r="E136">
+        <v>17</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="G136">
+        <v>1911</v>
+      </c>
+      <c r="H136" s="2">
+        <v>25719</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="K136">
+        <v>21</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>1911-01-17</t>
+        </is>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>59.36712328767123</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>1970</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Juan Hohberg</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Argentina/Uruguay</t>
+        </is>
+      </c>
+      <c r="E137">
+        <v>19</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>junio</t>
+        </is>
+      </c>
+      <c r="G137">
+        <v>1926</v>
+      </c>
+      <c r="H137" s="2">
+        <v>25719</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="K137">
+        <v>21</v>
+      </c>
+      <c r="L137">
+        <v>6</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>1926-06-19</t>
+        </is>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>1</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>43.94794520547945</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>1974</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Vladislao Cap</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="E138">
+        <v>5</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>julio</t>
+        </is>
+      </c>
+      <c r="G138">
+        <v>1934</v>
+      </c>
+      <c r="H138" s="2">
+        <v>27193</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="K138">
+        <v>24</v>
+      </c>
+      <c r="L138">
+        <v>7</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>1934-07-05</t>
+        </is>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>39.93972602739726</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>1974</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Rale Rasic</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Yugoslavia/Australia</t>
+        </is>
+      </c>
+      <c r="E139">
+        <v>26</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>diciembre</t>
+        </is>
+      </c>
+      <c r="G139">
+        <v>1935</v>
+      </c>
+      <c r="H139" s="2">
+        <v>27193</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="K139">
+        <v>24</v>
+      </c>
+      <c r="L139">
+        <v>12</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>1935-12-26</t>
+        </is>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>1</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>38.46301369863014</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>1974</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Mário Zagallo</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E140">
+        <v>9</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>agosto</t>
+        </is>
+      </c>
+      <c r="G140">
+        <v>1931</v>
+      </c>
+      <c r="H140" s="2">
+        <v>27193</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="K140">
+        <v>24</v>
+      </c>
+      <c r="L140">
+        <v>8</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>1931-08-09</t>
+        </is>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>42.84383561643835</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>1974</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Hristo Mladenov</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="E141">
+        <v>7</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="G141">
+        <v>1928</v>
+      </c>
+      <c r="H141" s="2">
+        <v>27193</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="K141">
+        <v>24</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>1928-01-07</t>
+        </is>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>46.43013698630137</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>1974</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Luis Álamos</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="E142">
+        <v>25</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>diciembre</t>
+        </is>
+      </c>
+      <c r="G142">
+        <v>1923</v>
+      </c>
+      <c r="H142" s="2">
+        <v>27193</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="K142">
+        <v>24</v>
+      </c>
+      <c r="L142">
+        <v>12</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>1923-12-25</t>
+        </is>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>50.46575342465754</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>1974</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Helmut Schön</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Alemania</t>
+        </is>
+      </c>
+      <c r="E143">
+        <v>15</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>septiembre</t>
+        </is>
+      </c>
+      <c r="G143">
+        <v>1915</v>
+      </c>
+      <c r="H143" s="2">
+        <v>27193</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="K143">
+        <v>24</v>
+      </c>
+      <c r="L143">
+        <v>9</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>1915-09-15</t>
+        </is>
+      </c>
+      <c r="N143">
+        <v>1</v>
+      </c>
+      <c r="O143">
+        <v>1</v>
+      </c>
+      <c r="P143">
+        <v>1</v>
+      </c>
+      <c r="Q143">
+        <v>58.74246575342466</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>1974</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Alemania Oriental</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Georg Buschner</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Alemania Oriental</t>
+        </is>
+      </c>
+      <c r="E144">
+        <v>26</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>diciembre</t>
+        </is>
+      </c>
+      <c r="G144">
+        <v>1925</v>
+      </c>
+      <c r="H144" s="2">
+        <v>27193</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="K144">
+        <v>24</v>
+      </c>
+      <c r="L144">
+        <v>12</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>1925-12-26</t>
+        </is>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>48.46301369863014</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>1974</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Haití</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Antoine Tassy</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Haití</t>
+        </is>
+      </c>
+      <c r="E145">
+        <v>13</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>agosto</t>
+        </is>
+      </c>
+      <c r="G145">
+        <v>1924</v>
+      </c>
+      <c r="H145" s="2">
+        <v>27193</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="K145">
+        <v>24</v>
+      </c>
+      <c r="L145">
+        <v>8</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>1924-08-13</t>
+        </is>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>49.83287671232877</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>1974</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Ferruccio Valcareggi</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="E146">
+        <v>12</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>febrero</t>
+        </is>
+      </c>
+      <c r="G146">
+        <v>1919</v>
+      </c>
+      <c r="H146" s="2">
+        <v>27193</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="K146">
+        <v>24</v>
+      </c>
+      <c r="L146">
+        <v>2</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>1919-02-12</t>
+        </is>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>55.33150684931507</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>1974</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Países Bajos</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Rinus Michels</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Países Bajos</t>
+        </is>
+      </c>
+      <c r="E147">
+        <v>9</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>febrero</t>
+        </is>
+      </c>
+      <c r="G147">
+        <v>1928</v>
+      </c>
+      <c r="H147" s="2">
+        <v>27193</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="K147">
+        <v>24</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>1928-02-09</t>
+        </is>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>46.33972602739726</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>1974</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Polonia</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Kazimierz Górski</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Polonia</t>
+        </is>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>marzo</t>
+        </is>
+      </c>
+      <c r="G148">
+        <v>1921</v>
+      </c>
+      <c r="H148" s="2">
+        <v>27193</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="K148">
+        <v>24</v>
+      </c>
+      <c r="L148">
+        <v>3</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>1921-03-02</t>
+        </is>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>53.28219178082192</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>1974</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Escocia</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Willie Ormond</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Escocia</t>
+        </is>
+      </c>
+      <c r="E149">
+        <v>23</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>febrero</t>
+        </is>
+      </c>
+      <c r="G149">
+        <v>1927</v>
+      </c>
+      <c r="H149" s="2">
+        <v>27193</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="K149">
+        <v>24</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>1927-02-23</t>
+        </is>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>47.3013698630137</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>1974</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Suecia</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Georg Ericson</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Suecia</t>
+        </is>
+      </c>
+      <c r="E150">
+        <v>18</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>diciembre</t>
+        </is>
+      </c>
+      <c r="G150">
+        <v>1919</v>
+      </c>
+      <c r="H150" s="2">
+        <v>27193</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="K150">
+        <v>24</v>
+      </c>
+      <c r="L150">
+        <v>12</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>1919-12-18</t>
+        </is>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>54.48493150684931</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>1974</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Roberto Porta</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="E151">
+        <v>7</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>junio</t>
+        </is>
+      </c>
+      <c r="G151">
+        <v>1913</v>
+      </c>
+      <c r="H151" s="2">
+        <v>27193</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="K151">
+        <v>24</v>
+      </c>
+      <c r="L151">
+        <v>6</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>1913-06-07</t>
+        </is>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>61.01643835616439</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>1974</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Yugoslavia</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Miljan Miljanić</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Yugoslavia</t>
+        </is>
+      </c>
+      <c r="E152">
+        <v>4</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>mayo</t>
+        </is>
+      </c>
+      <c r="G152">
+        <v>1930</v>
+      </c>
+      <c r="H152" s="2">
+        <v>27193</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="K152">
+        <v>24</v>
+      </c>
+      <c r="L152">
+        <v>5</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>1930-05-04</t>
+        </is>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>44.10958904109589</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>1974</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Zaire</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Blagoje Vidinić</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Yugoslavia</t>
+        </is>
+      </c>
+      <c r="E153">
+        <v>11</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>junio</t>
+        </is>
+      </c>
+      <c r="G153">
+        <v>1934</v>
+      </c>
+      <c r="H153" s="2">
+        <v>27193</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="K153">
+        <v>24</v>
+      </c>
+      <c r="L153">
+        <v>6</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>1934-06-11</t>
+        </is>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>1</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>40.00547945205479</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>1978</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>César Luis Menotti</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="E154">
+        <v>5</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>noviembre</t>
+        </is>
+      </c>
+      <c r="G154">
+        <v>1938</v>
+      </c>
+      <c r="H154" s="2">
+        <v>28642</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K154">
+        <v>24</v>
+      </c>
+      <c r="L154">
+        <v>11</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>1938-11-05</t>
+        </is>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <v>1</v>
+      </c>
+      <c r="Q154">
+        <v>39.56986301369863</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>1978</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Helmut Senekowitsch</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="E155">
+        <v>22</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>octubre</t>
+        </is>
+      </c>
+      <c r="G155">
+        <v>1933</v>
+      </c>
+      <c r="H155" s="2">
+        <v>28642</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K155">
+        <v>24</v>
+      </c>
+      <c r="L155">
+        <v>10</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>1933-10-22</t>
+        </is>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
+      <c r="P155">
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <v>44.60821917808219</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>1978</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Cláudio Coutinho</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E156">
+        <v>5</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="G156">
+        <v>1939</v>
+      </c>
+      <c r="H156" s="2">
+        <v>28642</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K156">
+        <v>24</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>1939-01-05</t>
+        </is>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+      <c r="P156">
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <v>39.4027397260274</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>1978</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Ladislao Kubala</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Hungría/España</t>
+        </is>
+      </c>
+      <c r="E157">
+        <v>10</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>junio</t>
+        </is>
+      </c>
+      <c r="G157">
+        <v>1927</v>
+      </c>
+      <c r="H157" s="2">
+        <v>28642</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K157">
+        <v>24</v>
+      </c>
+      <c r="L157">
+        <v>6</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>1927-06-10</t>
+        </is>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>1</v>
+      </c>
+      <c r="P157">
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <v>50.97534246575343</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>1978</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Francia</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Michel Hidalgo</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Francia</t>
+        </is>
+      </c>
+      <c r="E158">
+        <v>22</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>marzo</t>
+        </is>
+      </c>
+      <c r="G158">
+        <v>1933</v>
+      </c>
+      <c r="H158" s="2">
+        <v>28642</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K158">
+        <v>24</v>
+      </c>
+      <c r="L158">
+        <v>3</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>1933-03-22</t>
+        </is>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="P158">
+        <v>0</v>
+      </c>
+      <c r="Q158">
+        <v>45.1945205479452</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>1978</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Helmut Schön</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Alemania</t>
+        </is>
+      </c>
+      <c r="E159">
+        <v>15</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>septiembre</t>
+        </is>
+      </c>
+      <c r="G159">
+        <v>1915</v>
+      </c>
+      <c r="H159" s="2">
+        <v>28642</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K159">
+        <v>24</v>
+      </c>
+      <c r="L159">
+        <v>9</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>1915-09-15</t>
+        </is>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>1</v>
+      </c>
+      <c r="P159">
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <v>62.70958904109589</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>1978</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Hungría</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Lajos Baróti</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Hungría</t>
+        </is>
+      </c>
+      <c r="E160">
+        <v>19</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>agosto</t>
+        </is>
+      </c>
+      <c r="G160">
+        <v>1914</v>
+      </c>
+      <c r="H160" s="2">
+        <v>28642</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K160">
+        <v>24</v>
+      </c>
+      <c r="L160">
+        <v>8</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>1914-08-19</t>
+        </is>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <v>0</v>
+      </c>
+      <c r="Q160">
+        <v>63.78356164383562</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>1978</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Irán</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Heshmat Mohajerani</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Irán</t>
+        </is>
+      </c>
+      <c r="E161">
+        <v>11</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>diciembre</t>
+        </is>
+      </c>
+      <c r="G161">
+        <v>1936</v>
+      </c>
+      <c r="H161" s="2">
+        <v>28642</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K161">
+        <v>24</v>
+      </c>
+      <c r="L161">
+        <v>12</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>1936-12-11</t>
+        </is>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>41.47123287671233</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>1978</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Enzo Bearzot</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="E162">
+        <v>26</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>septiembre</t>
+        </is>
+      </c>
+      <c r="G162">
+        <v>1927</v>
+      </c>
+      <c r="H162" s="2">
+        <v>28642</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K162">
+        <v>24</v>
+      </c>
+      <c r="L162">
+        <v>9</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>1927-09-26</t>
+        </is>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <v>0</v>
+      </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <v>50.67945205479452</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>1978</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>José Roca</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>España/México</t>
+        </is>
+      </c>
+      <c r="E163">
+        <v>27</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>abril</t>
+        </is>
+      </c>
+      <c r="G163">
+        <v>1928</v>
+      </c>
+      <c r="H163" s="2">
+        <v>28642</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K163">
+        <v>24</v>
+      </c>
+      <c r="L163">
+        <v>4</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>1928-04-27</t>
+        </is>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <v>1</v>
+      </c>
+      <c r="P163">
+        <v>0</v>
+      </c>
+      <c r="Q163">
+        <v>50.0958904109589</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>1978</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Países Bajos</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Ernst Happel</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="E164">
+        <v>29</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>noviembre</t>
+        </is>
+      </c>
+      <c r="G164">
+        <v>1925</v>
+      </c>
+      <c r="H164" s="2">
+        <v>28642</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K164">
+        <v>24</v>
+      </c>
+      <c r="L164">
+        <v>11</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>1925-11-29</t>
+        </is>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164">
+        <v>1</v>
+      </c>
+      <c r="P164">
+        <v>0</v>
+      </c>
+      <c r="Q164">
+        <v>52.50410958904109</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>1978</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Marcos Calderón</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="E165">
+        <v>11</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>julio</t>
+        </is>
+      </c>
+      <c r="G165">
+        <v>1928</v>
+      </c>
+      <c r="H165" s="2">
+        <v>28642</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K165">
+        <v>24</v>
+      </c>
+      <c r="L165">
+        <v>7</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>1928-07-11</t>
+        </is>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
+      <c r="P165">
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <v>49.89041095890411</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>1978</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Polonia</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Jacek Gmoch</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Polonia</t>
+        </is>
+      </c>
+      <c r="E166">
+        <v>13</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="G166">
+        <v>1939</v>
+      </c>
+      <c r="H166" s="2">
+        <v>28642</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K166">
+        <v>24</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>1939-01-13</t>
+        </is>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <v>0</v>
+      </c>
+      <c r="P166">
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <v>39.38082191780822</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>1978</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Escocia</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Alistair MacLeod</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Escocia</t>
+        </is>
+      </c>
+      <c r="E167">
+        <v>26</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="G167">
+        <v>1931</v>
+      </c>
+      <c r="H167" s="2">
+        <v>28642</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K167">
+        <v>24</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>1931-01-26</t>
+        </is>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <v>0</v>
+      </c>
+      <c r="P167">
+        <v>0</v>
+      </c>
+      <c r="Q167">
+        <v>47.34520547945205</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>1978</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Suecia</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Georg Ericson</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Suecia</t>
+        </is>
+      </c>
+      <c r="E168">
+        <v>18</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>diciembre</t>
+        </is>
+      </c>
+      <c r="G168">
+        <v>1919</v>
+      </c>
+      <c r="H168" s="2">
+        <v>28642</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K168">
+        <v>24</v>
+      </c>
+      <c r="L168">
+        <v>12</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>1919-12-18</t>
+        </is>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <v>0</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <v>58.45205479452055</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>1978</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Túnez</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Abdelmajid Chetali</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Túnez</t>
+        </is>
+      </c>
+      <c r="E169">
+        <v>4</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>julio</t>
+        </is>
+      </c>
+      <c r="G169">
+        <v>1939</v>
+      </c>
+      <c r="H169" s="2">
+        <v>28642</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K169">
+        <v>24</v>
+      </c>
+      <c r="L169">
+        <v>7</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>1939-07-04</t>
+        </is>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <v>0</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <v>38.90958904109589</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <v>1982</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Argelia</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Rachid Mekhloufi</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Argelia</t>
+        </is>
+      </c>
+      <c r="E170">
+        <v>12</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>agosto</t>
+        </is>
+      </c>
+      <c r="G170">
+        <v>1936</v>
+      </c>
+      <c r="H170" s="2">
+        <v>30115</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="K170">
+        <v>28</v>
+      </c>
+      <c r="L170">
+        <v>8</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>1936-08-12</t>
+        </is>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170">
+        <v>0</v>
+      </c>
+      <c r="P170">
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <v>45.83561643835616</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <v>1982</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>César Luis Menotti</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="E171">
+        <v>5</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>noviembre</t>
+        </is>
+      </c>
+      <c r="G171">
+        <v>1938</v>
+      </c>
+      <c r="H171" s="2">
+        <v>30115</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="K171">
+        <v>28</v>
+      </c>
+      <c r="L171">
+        <v>11</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>1938-11-05</t>
+        </is>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <v>0</v>
+      </c>
+      <c r="P171">
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <v>43.60273972602739</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>1982</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Georg Schmidt</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="E172">
+        <v>22</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>febrero</t>
+        </is>
+      </c>
+      <c r="G172">
+        <v>1927</v>
+      </c>
+      <c r="H172" s="2">
+        <v>30115</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="K172">
+        <v>28</v>
+      </c>
+      <c r="L172">
+        <v>2</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>1927-02-22</t>
+        </is>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <v>0</v>
+      </c>
+      <c r="P172">
+        <v>0</v>
+      </c>
+      <c r="Q172">
+        <v>55.3041095890411</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <v>1982</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Bélgica</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Guy Thys</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Bélgica</t>
+        </is>
+      </c>
+      <c r="E173">
+        <v>6</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>diciembre</t>
+        </is>
+      </c>
+      <c r="G173">
+        <v>1922</v>
+      </c>
+      <c r="H173" s="2">
+        <v>30115</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="K173">
+        <v>28</v>
+      </c>
+      <c r="L173">
+        <v>12</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>1922-12-06</t>
+        </is>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <v>0</v>
+      </c>
+      <c r="P173">
+        <v>0</v>
+      </c>
+      <c r="Q173">
+        <v>59.51780821917808</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <v>1982</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Telê Santana</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E174">
+        <v>26</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>julio</t>
+        </is>
+      </c>
+      <c r="G174">
+        <v>1931</v>
+      </c>
+      <c r="H174" s="2">
+        <v>30115</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="K174">
+        <v>28</v>
+      </c>
+      <c r="L174">
+        <v>7</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>1931-07-26</t>
+        </is>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <v>0</v>
+      </c>
+      <c r="P174">
+        <v>0</v>
+      </c>
+      <c r="Q174">
+        <v>50.88219178082192</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <v>1982</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Luis Alberto Santibañez</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="E175">
+        <v>7</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>febrero</t>
+        </is>
+      </c>
+      <c r="G175">
+        <v>1936</v>
+      </c>
+      <c r="H175" s="2">
+        <v>30115</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="K175">
+        <v>28</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>1936-02-07</t>
+        </is>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175">
+        <v>0</v>
+      </c>
+      <c r="P175">
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <v>46.34520547945205</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <v>1982</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Camerún</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Jean Vincent</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Francia</t>
+        </is>
+      </c>
+      <c r="E176">
+        <v>29</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>noviembre</t>
+        </is>
+      </c>
+      <c r="G176">
+        <v>1930</v>
+      </c>
+      <c r="H176" s="2">
+        <v>30115</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="K176">
+        <v>28</v>
+      </c>
+      <c r="L176">
+        <v>11</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>1930-11-29</t>
+        </is>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+      <c r="O176">
+        <v>1</v>
+      </c>
+      <c r="P176">
+        <v>0</v>
+      </c>
+      <c r="Q176">
+        <v>51.53698630136986</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>1982</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Ron Greenwood</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="E177">
+        <v>11</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>noviembre</t>
+        </is>
+      </c>
+      <c r="G177">
+        <v>1921</v>
+      </c>
+      <c r="H177" s="2">
+        <v>30115</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="K177">
+        <v>28</v>
+      </c>
+      <c r="L177">
+        <v>11</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>1921-11-11</t>
+        </is>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177">
+        <v>0</v>
+      </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <v>60.58630136986302</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>1982</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>José Santamaría</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Uruguay/España</t>
+        </is>
+      </c>
+      <c r="E178">
+        <v>31</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>julio</t>
+        </is>
+      </c>
+      <c r="G178">
+        <v>1929</v>
+      </c>
+      <c r="H178" s="2">
+        <v>30115</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="K178">
+        <v>28</v>
+      </c>
+      <c r="L178">
+        <v>7</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>1929-07-31</t>
+        </is>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178">
+        <v>1</v>
+      </c>
+      <c r="P178">
+        <v>1</v>
+      </c>
+      <c r="Q178">
+        <v>52.86849315068493</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <v>1982</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Francia</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Michel Hidalgo</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Francia</t>
+        </is>
+      </c>
+      <c r="E179">
+        <v>22</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>marzo</t>
+        </is>
+      </c>
+      <c r="G179">
+        <v>1933</v>
+      </c>
+      <c r="H179" s="2">
+        <v>30115</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="K179">
+        <v>28</v>
+      </c>
+      <c r="L179">
+        <v>3</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>1933-03-22</t>
+        </is>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179">
+        <v>0</v>
+      </c>
+      <c r="P179">
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <v>49.22739726027397</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <v>1982</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Jupp Derwall</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Alemania</t>
+        </is>
+      </c>
+      <c r="E180">
+        <v>10</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>marzo</t>
+        </is>
+      </c>
+      <c r="G180">
+        <v>1927</v>
+      </c>
+      <c r="H180" s="2">
+        <v>30115</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="K180">
+        <v>28</v>
+      </c>
+      <c r="L180">
+        <v>3</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>1927-03-10</t>
+        </is>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180">
+        <v>1</v>
+      </c>
+      <c r="P180">
+        <v>0</v>
+      </c>
+      <c r="Q180">
+        <v>55.26027397260274</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <v>1982</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>José de la Paz Herrera</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
+      </c>
+      <c r="E181">
+        <v>21</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>noviembre</t>
+        </is>
+      </c>
+      <c r="G181">
+        <v>1940</v>
+      </c>
+      <c r="H181" s="2">
+        <v>30115</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="K181">
+        <v>28</v>
+      </c>
+      <c r="L181">
+        <v>11</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>1940-11-21</t>
+        </is>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+      <c r="O181">
+        <v>0</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <v>41.55890410958904</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>1982</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Hungría</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Kálmán Mészöly</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Hungría</t>
+        </is>
+      </c>
+      <c r="E182">
+        <v>16</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>julio</t>
+        </is>
+      </c>
+      <c r="G182">
+        <v>1941</v>
+      </c>
+      <c r="H182" s="2">
+        <v>30115</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="K182">
+        <v>28</v>
+      </c>
+      <c r="L182">
+        <v>7</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>1941-07-16</t>
+        </is>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+      <c r="O182">
+        <v>0</v>
+      </c>
+      <c r="P182">
+        <v>0</v>
+      </c>
+      <c r="Q182">
+        <v>40.90958904109589</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>1982</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Enzo Bearzot</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="E183">
+        <v>26</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>septiembre</t>
+        </is>
+      </c>
+      <c r="G183">
+        <v>1927</v>
+      </c>
+      <c r="H183" s="2">
+        <v>30115</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="K183">
+        <v>28</v>
+      </c>
+      <c r="L183">
+        <v>9</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>1927-09-26</t>
+        </is>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183">
+        <v>0</v>
+      </c>
+      <c r="P183">
+        <v>0</v>
+      </c>
+      <c r="Q183">
+        <v>54.71232876712329</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>1982</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Kuwait</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Carlos Alberto Parreira</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E184">
+        <v>27</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>febrero</t>
+        </is>
+      </c>
+      <c r="G184">
+        <v>1943</v>
+      </c>
+      <c r="H184" s="2">
+        <v>30115</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="K184">
+        <v>28</v>
+      </c>
+      <c r="L184">
+        <v>2</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>1943-02-27</t>
+        </is>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+      <c r="O184">
+        <v>1</v>
+      </c>
+      <c r="P184">
+        <v>0</v>
+      </c>
+      <c r="Q184">
+        <v>39.29041095890411</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>1982</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Irlanda del Norte</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Billy Bingham</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Irlanda del Norte</t>
+        </is>
+      </c>
+      <c r="E185">
+        <v>5</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>agosto</t>
+        </is>
+      </c>
+      <c r="G185">
+        <v>1931</v>
+      </c>
+      <c r="H185" s="2">
+        <v>30115</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="K185">
+        <v>28</v>
+      </c>
+      <c r="L185">
+        <v>8</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>1931-08-05</t>
+        </is>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+      <c r="O185">
+        <v>0</v>
+      </c>
+      <c r="P185">
+        <v>0</v>
+      </c>
+      <c r="Q185">
+        <v>50.85479452054795</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <v>1982</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Nueva Zelanda</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>John Adshead</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Inglaterra/Nueva Zelanda</t>
+        </is>
+      </c>
+      <c r="E186">
+        <v>27</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>marzo</t>
+        </is>
+      </c>
+      <c r="G186">
+        <v>1942</v>
+      </c>
+      <c r="H186" s="2">
+        <v>30115</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="K186">
+        <v>28</v>
+      </c>
+      <c r="L186">
+        <v>3</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>1942-03-27</t>
+        </is>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+      <c r="O186">
+        <v>1</v>
+      </c>
+      <c r="P186">
+        <v>0</v>
+      </c>
+      <c r="Q186">
+        <v>40.21369863013699</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <v>1982</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>febrero</t>
+        </is>
+      </c>
+      <c r="G187">
+        <v>1915</v>
+      </c>
+      <c r="H187" s="2">
+        <v>30115</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="K187">
+        <v>28</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>1915-02-02</t>
+        </is>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+      <c r="O187">
+        <v>1</v>
+      </c>
+      <c r="P187">
+        <v>0</v>
+      </c>
+      <c r="Q187">
+        <v>67.35890410958905</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <v>1982</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Polonia</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Antoni Piechniczek</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Polonia</t>
+        </is>
+      </c>
+      <c r="E188">
+        <v>3</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>mayo</t>
+        </is>
+      </c>
+      <c r="G188">
+        <v>1942</v>
+      </c>
+      <c r="H188" s="2">
+        <v>30115</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="K188">
+        <v>28</v>
+      </c>
+      <c r="L188">
+        <v>5</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>1942-05-03</t>
+        </is>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+      <c r="O188">
+        <v>0</v>
+      </c>
+      <c r="P188">
+        <v>0</v>
+      </c>
+      <c r="Q188">
+        <v>40.11232876712329</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <v>1982</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Escocia</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Jock Stein</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Escocia</t>
+        </is>
+      </c>
+      <c r="E189">
+        <v>5</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>octubre</t>
+        </is>
+      </c>
+      <c r="G189">
+        <v>1922</v>
+      </c>
+      <c r="H189" s="2">
+        <v>30115</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="K189">
+        <v>28</v>
+      </c>
+      <c r="L189">
+        <v>10</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>1922-10-05</t>
+        </is>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+      <c r="O189">
+        <v>0</v>
+      </c>
+      <c r="P189">
+        <v>0</v>
+      </c>
+      <c r="Q189">
+        <v>59.68767123287671</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <v>1982</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Mauricio Rodríguez</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="E190">
+        <v>12</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>septiembre</t>
+        </is>
+      </c>
+      <c r="G190">
+        <v>1945</v>
+      </c>
+      <c r="H190" s="2">
+        <v>30115</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="K190">
+        <v>28</v>
+      </c>
+      <c r="L190">
+        <v>9</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>1945-09-12</t>
+        </is>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+      <c r="O190">
+        <v>0</v>
+      </c>
+      <c r="P190">
+        <v>0</v>
+      </c>
+      <c r="Q190">
+        <v>36.75068493150685</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <v>1982</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Checoslovaquia</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Jozef Vengloš</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Checoslovaquia</t>
+        </is>
+      </c>
+      <c r="E191">
+        <v>18</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>febrero</t>
+        </is>
+      </c>
+      <c r="G191">
+        <v>1936</v>
+      </c>
+      <c r="H191" s="2">
+        <v>30115</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="K191">
+        <v>28</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>1936-02-18</t>
+        </is>
+      </c>
+      <c r="N191">
+        <v>0</v>
+      </c>
+      <c r="O191">
+        <v>0</v>
+      </c>
+      <c r="P191">
+        <v>0</v>
+      </c>
+      <c r="Q191">
+        <v>46.31506849315068</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>1982</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Unión Soviética</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Konstantin Beskov</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Unión Soviética</t>
+        </is>
+      </c>
+      <c r="E192">
+        <v>18</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>noviembre</t>
+        </is>
+      </c>
+      <c r="G192">
+        <v>1920</v>
+      </c>
+      <c r="H192" s="2">
+        <v>30115</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="K192">
+        <v>28</v>
+      </c>
+      <c r="L192">
+        <v>11</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>1920-11-18</t>
+        </is>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+      <c r="O192">
+        <v>0</v>
+      </c>
+      <c r="P192">
+        <v>0</v>
+      </c>
+      <c r="Q192">
+        <v>61.56712328767123</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <v>1982</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Yugoslavia</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Miljan Miljanić</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Yugoslavia</t>
+        </is>
+      </c>
+      <c r="E193">
+        <v>4</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>mayo</t>
+        </is>
+      </c>
+      <c r="G193">
+        <v>1930</v>
+      </c>
+      <c r="H193" s="2">
+        <v>30115</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="K193">
+        <v>28</v>
+      </c>
+      <c r="L193">
+        <v>5</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>1930-05-04</t>
+        </is>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
+      <c r="P193">
+        <v>0</v>
+      </c>
+      <c r="Q193">
+        <v>52.10958904109589</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <v>1986</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Argelia</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Rabah Saadane</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Argelia</t>
+        </is>
+      </c>
+      <c r="E194">
+        <v>3</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>mayo</t>
+        </is>
+      </c>
+      <c r="G194">
+        <v>1946</v>
+      </c>
+      <c r="H194" s="2">
+        <v>31563</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K194">
+        <v>29</v>
+      </c>
+      <c r="L194">
+        <v>5</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>1946-05-03</t>
+        </is>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="O194">
+        <v>0</v>
+      </c>
+      <c r="P194">
+        <v>0</v>
+      </c>
+      <c r="Q194">
+        <v>40.07671232876712</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>1986</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Carlos Bilardo</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="E195">
+        <v>16</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>marzo</t>
+        </is>
+      </c>
+      <c r="G195">
+        <v>1938</v>
+      </c>
+      <c r="H195" s="2">
+        <v>31563</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K195">
+        <v>29</v>
+      </c>
+      <c r="L195">
+        <v>3</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>1938-03-16</t>
+        </is>
+      </c>
+      <c r="N195">
+        <v>1</v>
+      </c>
+      <c r="O195">
+        <v>0</v>
+      </c>
+      <c r="P195">
+        <v>0</v>
+      </c>
+      <c r="Q195">
+        <v>48.20821917808219</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <v>1986</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Bélgica</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Guy Thys</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Bélgica</t>
+        </is>
+      </c>
+      <c r="E196">
+        <v>6</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>diciembre</t>
+        </is>
+      </c>
+      <c r="G196">
+        <v>1922</v>
+      </c>
+      <c r="H196" s="2">
+        <v>31563</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K196">
+        <v>29</v>
+      </c>
+      <c r="L196">
+        <v>12</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>1922-12-06</t>
+        </is>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+      <c r="O196">
+        <v>0</v>
+      </c>
+      <c r="P196">
+        <v>0</v>
+      </c>
+      <c r="Q196">
+        <v>63.48219178082192</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>1986</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Telê Santana</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E197">
+        <v>26</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>julio</t>
+        </is>
+      </c>
+      <c r="G197">
+        <v>1931</v>
+      </c>
+      <c r="H197" s="2">
+        <v>31563</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K197">
+        <v>29</v>
+      </c>
+      <c r="L197">
+        <v>7</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>1931-07-26</t>
+        </is>
+      </c>
+      <c r="N197">
+        <v>0</v>
+      </c>
+      <c r="O197">
+        <v>0</v>
+      </c>
+      <c r="P197">
+        <v>0</v>
+      </c>
+      <c r="Q197">
+        <v>54.84657534246575</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <v>1986</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Ivan Vutsov</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="E198">
+        <v>14</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="G198">
+        <v>1939</v>
+      </c>
+      <c r="H198" s="2">
+        <v>31563</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K198">
+        <v>29</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>1939-01-14</t>
+        </is>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+      <c r="O198">
+        <v>0</v>
+      </c>
+      <c r="P198">
+        <v>0</v>
+      </c>
+      <c r="Q198">
+        <v>47.37534246575343</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>1986</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Canadá</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Tony Waiters</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Inglaterra/Canadá</t>
+        </is>
+      </c>
+      <c r="E199">
+        <v>2</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>febrero</t>
+        </is>
+      </c>
+      <c r="G199">
+        <v>1937</v>
+      </c>
+      <c r="H199" s="2">
+        <v>31563</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K199">
+        <v>29</v>
+      </c>
+      <c r="L199">
+        <v>2</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>1937-02-02</t>
+        </is>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <v>1</v>
+      </c>
+      <c r="P199">
+        <v>0</v>
+      </c>
+      <c r="Q199">
+        <v>49.32328767123288</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>1986</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Dinamarca</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Sepp Piontek</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Alemania</t>
+        </is>
+      </c>
+      <c r="E200">
+        <v>5</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>marzo</t>
+        </is>
+      </c>
+      <c r="G200">
+        <v>1940</v>
+      </c>
+      <c r="H200" s="2">
+        <v>31563</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K200">
+        <v>29</v>
+      </c>
+      <c r="L200">
+        <v>3</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>1940-03-05</t>
+        </is>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <v>1</v>
+      </c>
+      <c r="P200">
+        <v>0</v>
+      </c>
+      <c r="Q200">
+        <v>46.23835616438356</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>1986</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Bobby Robson</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Inglaterra</t>
+        </is>
+      </c>
+      <c r="E201">
+        <v>18</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>febrero</t>
+        </is>
+      </c>
+      <c r="G201">
+        <v>1933</v>
+      </c>
+      <c r="H201" s="2">
+        <v>31563</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K201">
+        <v>29</v>
+      </c>
+      <c r="L201">
+        <v>2</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>1933-02-18</t>
+        </is>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+      <c r="O201">
+        <v>0</v>
+      </c>
+      <c r="P201">
+        <v>0</v>
+      </c>
+      <c r="Q201">
+        <v>53.27945205479452</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>1986</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Miguel Muñoz</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="E202">
+        <v>19</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="G202">
+        <v>1922</v>
+      </c>
+      <c r="H202" s="2">
+        <v>31563</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K202">
+        <v>29</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>1922-01-19</t>
+        </is>
+      </c>
+      <c r="N202">
+        <v>0</v>
+      </c>
+      <c r="O202">
+        <v>0</v>
+      </c>
+      <c r="P202">
+        <v>0</v>
+      </c>
+      <c r="Q202">
+        <v>64.36164383561643</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>1986</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Francia</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Henri Michel</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Francia</t>
+        </is>
+      </c>
+      <c r="E203">
+        <v>28</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>octubre</t>
+        </is>
+      </c>
+      <c r="G203">
+        <v>1947</v>
+      </c>
+      <c r="H203" s="2">
+        <v>31563</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K203">
+        <v>29</v>
+      </c>
+      <c r="L203">
+        <v>10</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>1947-10-28</t>
+        </is>
+      </c>
+      <c r="N203">
+        <v>0</v>
+      </c>
+      <c r="O203">
+        <v>0</v>
+      </c>
+      <c r="P203">
+        <v>0</v>
+      </c>
+      <c r="Q203">
+        <v>38.58904109589041</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>1986</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Alemania Federal</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Franz Beckenbauer</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Alemania</t>
+        </is>
+      </c>
+      <c r="E204">
+        <v>11</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>septiembre</t>
+        </is>
+      </c>
+      <c r="G204">
+        <v>1945</v>
+      </c>
+      <c r="H204" s="2">
+        <v>31563</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K204">
+        <v>29</v>
+      </c>
+      <c r="L204">
+        <v>9</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>1945-09-11</t>
+        </is>
+      </c>
+      <c r="N204">
+        <v>0</v>
+      </c>
+      <c r="O204">
+        <v>1</v>
+      </c>
+      <c r="P204">
+        <v>0</v>
+      </c>
+      <c r="Q204">
+        <v>40.71780821917808</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>1986</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Hungría</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>György Mezey</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Hungría</t>
+        </is>
+      </c>
+      <c r="E205">
+        <v>7</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>septiembre</t>
+        </is>
+      </c>
+      <c r="G205">
+        <v>1941</v>
+      </c>
+      <c r="H205" s="2">
+        <v>31563</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K205">
+        <v>29</v>
+      </c>
+      <c r="L205">
+        <v>9</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>1941-09-07</t>
+        </is>
+      </c>
+      <c r="N205">
+        <v>0</v>
+      </c>
+      <c r="O205">
+        <v>0</v>
+      </c>
+      <c r="P205">
+        <v>0</v>
+      </c>
+      <c r="Q205">
+        <v>44.72876712328767</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>1986</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Irak</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Evaristo</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E206">
+        <v>22</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>junio</t>
+        </is>
+      </c>
+      <c r="G206">
+        <v>1933</v>
+      </c>
+      <c r="H206" s="2">
+        <v>31563</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K206">
+        <v>29</v>
+      </c>
+      <c r="L206">
+        <v>6</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>1933-06-22</t>
+        </is>
+      </c>
+      <c r="N206">
+        <v>0</v>
+      </c>
+      <c r="O206">
+        <v>1</v>
+      </c>
+      <c r="P206">
+        <v>0</v>
+      </c>
+      <c r="Q206">
+        <v>52.93972602739726</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>1986</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Enzo Bearzot</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="E207">
+        <v>26</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>septiembre</t>
+        </is>
+      </c>
+      <c r="G207">
+        <v>1927</v>
+      </c>
+      <c r="H207" s="2">
+        <v>31563</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K207">
+        <v>29</v>
+      </c>
+      <c r="L207">
+        <v>9</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>1927-09-26</t>
+        </is>
+      </c>
+      <c r="N207">
+        <v>0</v>
+      </c>
+      <c r="O207">
+        <v>0</v>
+      </c>
+      <c r="P207">
+        <v>0</v>
+      </c>
+      <c r="Q207">
+        <v>58.67671232876712</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>1986</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Corea del Sur</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Kim Jung-Nam</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Corea del Sur</t>
+        </is>
+      </c>
+      <c r="E208">
+        <v>28</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="G208">
+        <v>1943</v>
+      </c>
+      <c r="H208" s="2">
+        <v>31563</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K208">
+        <v>29</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>1943-01-28</t>
+        </is>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+      <c r="O208">
+        <v>0</v>
+      </c>
+      <c r="P208">
+        <v>0</v>
+      </c>
+      <c r="Q208">
+        <v>43.33698630136986</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>1986</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Marruecos</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>José Faria</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Brasil/Marruecos</t>
+        </is>
+      </c>
+      <c r="E209">
+        <v>3</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>junio</t>
+        </is>
+      </c>
+      <c r="G209">
+        <v>1933</v>
+      </c>
+      <c r="H209" s="2">
+        <v>31563</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K209">
+        <v>29</v>
+      </c>
+      <c r="L209">
+        <v>6</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>1933-06-03</t>
+        </is>
+      </c>
+      <c r="N209">
+        <v>0</v>
+      </c>
+      <c r="O209">
+        <v>1</v>
+      </c>
+      <c r="P209">
+        <v>0</v>
+      </c>
+      <c r="Q209">
+        <v>52.99178082191781</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>1986</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Bora Milutinović</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Yugoslavia/México</t>
+        </is>
+      </c>
+      <c r="E210">
+        <v>7</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>septiembre</t>
+        </is>
+      </c>
+      <c r="G210">
+        <v>1944</v>
+      </c>
+      <c r="H210" s="2">
+        <v>31563</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K210">
+        <v>29</v>
+      </c>
+      <c r="L210">
+        <v>9</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>1944-09-07</t>
+        </is>
+      </c>
+      <c r="N210">
+        <v>0</v>
+      </c>
+      <c r="O210">
+        <v>1</v>
+      </c>
+      <c r="P210">
+        <v>1</v>
+      </c>
+      <c r="Q210">
+        <v>41.72876712328767</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>1986</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Irlanda del Norte</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Billy Bingham</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Irlanda del Norte</t>
+        </is>
+      </c>
+      <c r="E211">
+        <v>5</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>agosto</t>
+        </is>
+      </c>
+      <c r="G211">
+        <v>1931</v>
+      </c>
+      <c r="H211" s="2">
+        <v>31563</v>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K211">
+        <v>29</v>
+      </c>
+      <c r="L211">
+        <v>8</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>1931-08-05</t>
+        </is>
+      </c>
+      <c r="N211">
+        <v>0</v>
+      </c>
+      <c r="O211">
+        <v>0</v>
+      </c>
+      <c r="P211">
+        <v>0</v>
+      </c>
+      <c r="Q211">
+        <v>54.81917808219178</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <v>1986</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Cayetano Ré</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="E212">
+        <v>7</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>febrero</t>
+        </is>
+      </c>
+      <c r="G212">
+        <v>1938</v>
+      </c>
+      <c r="H212" s="2">
+        <v>31563</v>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K212">
+        <v>29</v>
+      </c>
+      <c r="L212">
+        <v>2</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>1938-02-07</t>
+        </is>
+      </c>
+      <c r="N212">
+        <v>0</v>
+      </c>
+      <c r="O212">
+        <v>0</v>
+      </c>
+      <c r="P212">
+        <v>0</v>
+      </c>
+      <c r="Q212">
+        <v>48.30958904109589</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>1986</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Polonia</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Antoni Piechniczek</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Polonia</t>
+        </is>
+      </c>
+      <c r="E213">
+        <v>3</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>mayo</t>
+        </is>
+      </c>
+      <c r="G213">
+        <v>1942</v>
+      </c>
+      <c r="H213" s="2">
+        <v>31563</v>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K213">
+        <v>29</v>
+      </c>
+      <c r="L213">
+        <v>5</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>1942-05-03</t>
+        </is>
+      </c>
+      <c r="N213">
+        <v>0</v>
+      </c>
+      <c r="O213">
+        <v>0</v>
+      </c>
+      <c r="P213">
+        <v>0</v>
+      </c>
+      <c r="Q213">
+        <v>44.07671232876712</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>1986</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>José Torres</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="E214">
+        <v>8</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>septiembre</t>
+        </is>
+      </c>
+      <c r="G214">
+        <v>1938</v>
+      </c>
+      <c r="H214" s="2">
+        <v>31563</v>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K214">
+        <v>29</v>
+      </c>
+      <c r="L214">
+        <v>9</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>1938-09-08</t>
+        </is>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+      <c r="O214">
+        <v>0</v>
+      </c>
+      <c r="P214">
+        <v>0</v>
+      </c>
+      <c r="Q214">
+        <v>47.72602739726027</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>1986</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Escocia</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Alex Ferguson</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Escocia</t>
+        </is>
+      </c>
+      <c r="E215">
+        <v>31</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>diciembre</t>
+        </is>
+      </c>
+      <c r="G215">
+        <v>1941</v>
+      </c>
+      <c r="H215" s="2">
+        <v>31563</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K215">
+        <v>29</v>
+      </c>
+      <c r="L215">
+        <v>12</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>1941-12-31</t>
+        </is>
+      </c>
+      <c r="N215">
+        <v>0</v>
+      </c>
+      <c r="O215">
+        <v>0</v>
+      </c>
+      <c r="P215">
+        <v>0</v>
+      </c>
+      <c r="Q215">
+        <v>44.41369863013698</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>1986</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Unión Soviética</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Valeriy Lobanovskyi</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Ucrania/Soviética</t>
+        </is>
+      </c>
+      <c r="E216">
+        <v>6</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>enero</t>
+        </is>
+      </c>
+      <c r="G216">
+        <v>1939</v>
+      </c>
+      <c r="H216" s="2">
+        <v>31563</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K216">
+        <v>29</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>1939-01-06</t>
+        </is>
+      </c>
+      <c r="N216">
+        <v>0</v>
+      </c>
+      <c r="O216">
+        <v>1</v>
+      </c>
+      <c r="P216">
+        <v>0</v>
+      </c>
+      <c r="Q216">
+        <v>47.39726027397261</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <v>1986</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Omar Borrás</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="E217">
+        <v>15</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>junio</t>
+        </is>
+      </c>
+      <c r="G217">
+        <v>1929</v>
+      </c>
+      <c r="H217" s="2">
+        <v>31563</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="K217">
+        <v>29</v>
+      </c>
+      <c r="L217">
+        <v>6</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>1929-06-15</t>
+        </is>
+      </c>
+      <c r="N217">
+        <v>0</v>
+      </c>
+      <c r="O217">
+        <v>0</v>
+      </c>
+      <c r="P217">
+        <v>0</v>
+      </c>
+      <c r="Q217">
+        <v>56.95890410958904</v>
       </c>
     </row>
   </sheetData>

--- a/Aux_Tecnicos.xlsx
+++ b/Aux_Tecnicos.xlsx
@@ -367,17 +367,17 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Año</t>
+          <t>MYEAR</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Selección</t>
+          <t>Seleccion</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Nombre del Entrenador</t>
+          <t>COACH</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
